--- a/data/output/FV2304_FV2210/UTILMD/11075.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11075.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5858" uniqueCount="411">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5879" uniqueCount="411">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1342,6 +1342,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U274" totalsRowShown="0">
+  <autoFilter ref="A1:U274"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,7 +1661,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U274"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14180,5 +14213,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11075.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11075.xlsx
@@ -2572,7 +2572,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4700,7 +4700,7 @@
         <v>381</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4906,7 +4906,7 @@
         <v>382</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5286,7 +5286,7 @@
         <v>381</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5574,7 +5574,7 @@
         <v>385</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5862,7 +5862,7 @@
         <v>387</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6050,7 +6050,7 @@
         <v>381</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -6332,7 +6332,7 @@
       </c>
       <c r="K80" s="2"/>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6778,7 +6778,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -7238,7 +7238,7 @@
         <v>388</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7534,7 +7534,7 @@
         <v>385</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7822,7 +7822,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8026,7 +8026,7 @@
         <v>390</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -8314,7 +8314,7 @@
         <v>391</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -8558,7 +8558,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8694,7 +8694,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8838,7 +8838,7 @@
       </c>
       <c r="K131" s="2"/>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9022,7 +9022,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -9266,7 +9266,7 @@
         <v>393</v>
       </c>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9758,7 +9758,7 @@
         <v>395</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10048,7 +10048,7 @@
         <v>397</v>
       </c>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -10898,7 +10898,7 @@
         <v>398</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -11254,7 +11254,7 @@
         <v>399</v>
       </c>
       <c r="L180" s="4"/>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N180" s="2" t="s">
@@ -11392,7 +11392,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11592,7 +11592,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -11744,7 +11744,7 @@
         <v>400</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -12096,7 +12096,7 @@
         <v>402</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12492,7 +12492,7 @@
         <v>403</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12826,7 +12826,7 @@
         <v>404</v>
       </c>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -12964,7 +12964,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13108,7 +13108,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13246,7 +13246,7 @@
         <v>405</v>
       </c>
       <c r="L221" s="4"/>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N221" s="2" t="s">
@@ -13394,7 +13394,7 @@
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="4"/>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N224" s="2" t="s">
@@ -13706,7 +13706,7 @@
         <v>404</v>
       </c>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -14128,7 +14128,7 @@
         <v>408</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="4"/>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N242" s="2" t="s">
@@ -14412,7 +14412,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -14560,7 +14560,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -14846,7 +14846,7 @@
         <v>409</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15142,7 +15142,7 @@
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -15346,7 +15346,7 @@
         <v>410</v>
       </c>
       <c r="L264" s="4"/>
-      <c r="M264" s="2" t="s">
+      <c r="M264" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N264" s="2" t="s">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N272" s="2"/>
